--- a/vivensy/evidence.xlsx
+++ b/vivensy/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\duygu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419760F-9BD3-41A1-B694-4DDF8BB1100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416279F-31E2-487E-AE27-2A60F3960459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +125,48 @@
   </si>
   <si>
     <t>Stargaze</t>
+  </si>
+  <si>
+    <t>F2026442046CAD4820BA81C7DD1F3355C074C5F42019D271204EFB93D8EF45F8</t>
+  </si>
+  <si>
+    <t>vivens</t>
+  </si>
+  <si>
+    <t>84A0A1D0574F35248587D2D899913C37E1071636461135F56ADFE95A747F57BA</t>
+  </si>
+  <si>
+    <t>4ACF9F587EE44EBE1571E5CA8E96AE1F0AC03093A2DD4E798E4D4EF6A04F74BC</t>
+  </si>
+  <si>
+    <t>nft0001</t>
+  </si>
+  <si>
+    <t>nft0002</t>
+  </si>
+  <si>
+    <t>AA08F2AB49F70B17AF67E4E09C9647B1C4BF11BD06520C577F0164A0B5F6A1BF</t>
+  </si>
+  <si>
+    <t>juno1at6nu0jt7lzv0537mavw6k65kn3ekzv8lxmevfgvw3r2dfdshhpq9hwl5s</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>F0E335D85081F77F0E249CB2157A0F20ABBB851D3DFC2D373F8F3F9A843A7525</t>
+  </si>
+  <si>
+    <t>E8659583AD6C648D0BFBA91B2026895F2B18C3A2B2F3E5FCE5D31FCDB5D4D9B7</t>
+  </si>
+  <si>
+    <t>ibc/39158EBE0DF416D1D6C3E7F99C2CD113F04E59C7BAC8B5CCEF7563C358D898AE</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>D76BDBEE44288E78DB03BF0100E4118A7488F1967A835DF051CD10991697CD4E</t>
   </si>
 </sst>
 </file>
@@ -537,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,54 +579,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1061,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1054,10 +1080,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1324,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1321,13 +1349,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1381,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1367,16 +1408,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1432,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1416,16 +1459,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1483,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1465,16 +1510,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1534,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1515,16 +1562,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/vivensy/evidence.xlsx
+++ b/vivensy/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\duygu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416279F-31E2-487E-AE27-2A60F3960459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A442367-4255-4C2D-A690-A3CF6A8D6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -167,6 +152,159 @@
   </si>
   <si>
     <t>D76BDBEE44288E78DB03BF0100E4118A7488F1967A835DF051CD10991697CD4E</t>
+  </si>
+  <si>
+    <t>ibc/E06A8351F1572B72CE3DBBE318AA385EDA5C57279CC06817DF71325B7762233C</t>
+  </si>
+  <si>
+    <t>vvs0007</t>
+  </si>
+  <si>
+    <t>ibc/2D73D19063A0FC41F41E52FFB14B6FD834EB4FE5497F0535C886D4F508F2322F</t>
+  </si>
+  <si>
+    <t>vvs0008</t>
+  </si>
+  <si>
+    <t>ibc/6C8F9B716E0F5222803F1C24E608F67A11D32D5823CE11DB4364007675C7D39B</t>
+  </si>
+  <si>
+    <t>vvs0009</t>
+  </si>
+  <si>
+    <t>ibc/354414854EE268D67CE5559E49CB366937C3CE80C26587D0AAC7518D629703A4</t>
+  </si>
+  <si>
+    <t>vvs0010</t>
+  </si>
+  <si>
+    <t>ibc/C7D29300296F808A1D6F27E3306BE4C7FF4FF9A908F3F5FF52E81A4CA99F0E22</t>
+  </si>
+  <si>
+    <t>vvs0011</t>
+  </si>
+  <si>
+    <t>ibc/6229DD619B19CC908ED97695736975A5AF7134E6E58327376E9F2368EA512B35</t>
+  </si>
+  <si>
+    <t>vvs0012</t>
+  </si>
+  <si>
+    <t>E89746F8330F31B2B1496769C701C0392008D43FBB3FCC85C97185E2D7D8EBFB</t>
+  </si>
+  <si>
+    <t>DCD010815CCE8EF2C21DFCEFE222FB1900374F294169C75B28AC8B1426A70840</t>
+  </si>
+  <si>
+    <t>FA02F5E10E02E7F454AC68AACCD032DC71EA5B105558FC00019C093427EC4828</t>
+  </si>
+  <si>
+    <t>B9D42B7B5E10D5C7DC266BEA4369D5C4D8E29FBD004CC20E991DA31D51482146</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>46949E53D1076BCE5905754070404A82D50E6BD0EBE0F2F034BEBFC459049B40</t>
+  </si>
+  <si>
+    <t>309ABD83361605DE6F009F8CAC0ADC3E5DC23C8CD820413C7A6CD0DDB379E9A8</t>
+  </si>
+  <si>
+    <t>46CBF736AE7AFFD96D8E23AB44E28D95B362EB7B978C8DE190E866E066279ED1</t>
+  </si>
+  <si>
+    <t>2F982C10D97F379F7C51027A4741088DEFAAD9801BB1CB0948C3D6D538BC54F5</t>
+  </si>
+  <si>
+    <t>BFEB64C4A8C5B59946035AF77ED741724BC4CB417D0A882527E4414DA3CF337F</t>
+  </si>
+  <si>
+    <t>8AED8D254EA5DB2FC4B5DBEBC645EB04AA990B3B7D4E382CC2147D717E1DA432</t>
+  </si>
+  <si>
+    <t>6C70F4B198BDA5CC838C616ED87353DF1DD99CECDD7B16A7AFEFDC7EE4918DED</t>
+  </si>
+  <si>
+    <t>3EC1196EBD5DF0E35BB4CDC938A843291522E938DC15DE5F3949B778C927B46C</t>
+  </si>
+  <si>
+    <t>ED5E153A527909AF3CE8D75C51C45E4D506DAA29EFE31CA86BEF9EF9F2187BF8</t>
+  </si>
+  <si>
+    <t>A3A40C8B8D122CAC2AA33BC7E04DF066D4601D8904536C1034DCF01638A19878</t>
+  </si>
+  <si>
+    <t>3A98BFE723489E5E6435278DF6C3D5C397D33E207DC0FD7CBF08D2998873842A</t>
+  </si>
+  <si>
+    <t>554D7575DA5B833731DC1F9D4F3050E3DC63BD3A82E5F5C24C312FDE7F9E392D</t>
+  </si>
+  <si>
+    <t>35D89F9FA8E8A1FF7E34F2196B78E69082478254CA2EF142C61C9AA4665C1127</t>
+  </si>
+  <si>
+    <t>DA569A06C0A4DF8EB934519D9AC2B248B218364AE943449547DD2B6BB1EACBAE</t>
+  </si>
+  <si>
+    <t>E1E0457EC8EB6B34E0FCD38F242D086F4C28594016B71187DD27CCB221B5D72B</t>
+  </si>
+  <si>
+    <t>37AA3F3ADE803188ECFF2E206EE1A7AD8577E0C33F9879CC267D21E1EBC06E2E</t>
+  </si>
+  <si>
+    <t>D9865322B6B1E0A8B82F5EB24D98877CDC9C63B9F28B24F02CC15ACAC4D053EC</t>
+  </si>
+  <si>
+    <t>CC67859E5CE93D2DBD36A5DB3E913ABC65835B4F21D64C017B54EE58C7C4A0EC</t>
+  </si>
+  <si>
+    <t>AE383597934B48773D3FDEFF4471361ACE903CEFD6DC105838E94ECD15B7A0A2</t>
+  </si>
+  <si>
+    <t>EBDA05A6CC0D7EDCA944DF7ADEA816FBD8930F966F0158A812AA18E4F0779432</t>
+  </si>
+  <si>
+    <t>76DD2E52738742E9FD9478EAEAC56D27DC109BFEB7DA225651AD8E03ED02A17F</t>
+  </si>
+  <si>
+    <t>4E1CE71FD7007ABC3457B2867B3BE2521E6AFF7311656B1D26F589C6BB674BAB</t>
+  </si>
+  <si>
+    <t>2E4FDC41AB7E39041DB1C78A35E20FB45FF41CB207172BFA274CA67BA58C8A05</t>
+  </si>
+  <si>
+    <t>D89D0A03BD9BA97152CBA4068549914EF8F8A9C08C155DD3751B6A1EDF0D702A</t>
+  </si>
+  <si>
+    <t>1ECCFA2B7F6A3088094D2E71FA16BD0761B699934021BFBED251303BE57999F1</t>
+  </si>
+  <si>
+    <t>689F1FEACD4EFA5E936A07E0278176FDD10E8AB42C75A168406522C38126A09D</t>
+  </si>
+  <si>
+    <t>FF9F79031F77A1EB6875AA015ED3F71D32D2F0591400064A4D1EB46EF80EBCE2</t>
+  </si>
+  <si>
+    <t>4E70CF9A22C110B53310192C7AE4CC7EC3A06F8AC6CE5F61B00E266EF8BB16C2</t>
+  </si>
+  <si>
+    <t>6475DAB003DB3C5A8CCE13CEB69095BA7BA8213FA01FF7C012D8AFB941BA9D5E</t>
+  </si>
+  <si>
+    <t>3AE41A04F6AB02FF47490A1020F8A5AA9FD3311A77F3A12F0C148EDF495F0661</t>
+  </si>
+  <si>
+    <t>B8E050D695063AC3C1AD90658ED56D59FF9E20C3A219DAC20836CF2115A4CF03</t>
+  </si>
+  <si>
+    <t>9EF054983D96C7BE9DFD56B9A2C908ABB38B03C6260F1911CE254519015A9946</t>
   </si>
 </sst>
 </file>
@@ -579,54 +717,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +779,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,18 +791,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +817,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,18 +829,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +855,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,18 +867,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +893,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,18 +905,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -783,9 +929,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,20 +951,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -829,9 +991,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -849,20 +1013,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -875,9 +1053,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,20 +1075,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -921,9 +1115,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,20 +1137,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -967,9 +1177,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,20 +1199,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1013,9 +1239,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1033,20 +1261,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1075,15 +1317,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1096,9 +1338,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,20 +1360,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1142,9 +1416,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1162,20 +1438,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1341,32 +1647,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1688,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1408,16 +1714,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1739,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1459,16 +1765,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1510,16 +1816,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1840,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1562,16 +1868,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1892,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1596,18 +1904,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1930,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1632,18 +1942,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/vivensy/evidence.xlsx
+++ b/vivensy/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\duygu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A442367-4255-4C2D-A690-A3CF6A8D6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B159CB-E968-40FE-99FA-C3028B41EF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TxHash</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>9EF054983D96C7BE9DFD56B9A2C908ABB38B03C6260F1911CE254519015A9946</t>
+  </si>
+  <si>
+    <t>8D0224B36F0C6BC16C094E705BC9849A799741EA666174482286458A801F92DE</t>
+  </si>
+  <si>
+    <t>D0300EDE06E8B58E80447493E4C463D9FB2150A92613A23861FFF93EBD27B037</t>
+  </si>
+  <si>
+    <t>87F4590CE9B978449BF027DB44994F18B047D6D28FBAB99D5DF8A881AF3EA71E</t>
+  </si>
+  <si>
+    <t>4DB60BB72A1D87B5A84487488BC8742FFF95807183D18904A8FF57739EDF735B</t>
   </si>
 </sst>
 </file>
@@ -893,7 +905,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -1496,7 +1508,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1510,12 +1524,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1544,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1544,12 +1560,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/vivensy/evidence.xlsx
+++ b/vivensy/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\duygu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B159CB-E968-40FE-99FA-C3028B41EF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A9E74-7720-4AC0-B79B-C76173937CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -317,6 +312,24 @@
   </si>
   <si>
     <t>4DB60BB72A1D87B5A84487488BC8742FFF95807183D18904A8FF57739EDF735B</t>
+  </si>
+  <si>
+    <t>C5D8C3708B9BD97515B0BC94279C0BE7AB6EFC90E840123EF8A16EBBB80368DA</t>
+  </si>
+  <si>
+    <t>7796B630B99B2D65BD57FAFCBC96DE9C8A0D2E1C3ED1DB0B182042A821F40923</t>
+  </si>
+  <si>
+    <t>366B35E05FD42101AFD6C2E7C2D8D828E7F7F5298F145A41EA705C1ADD6290AA</t>
+  </si>
+  <si>
+    <t>60D733D4BAE73F5DF9395244B6CC8599FFB238E2723DCF81616A5640FC4E90E1</t>
+  </si>
+  <si>
+    <t>70C29E62EC101F82E5949066D05F6FB50BD3456A9668DA991E1BCC3801D9BD81</t>
+  </si>
+  <si>
+    <t>E56DD1131EA04F761CDB051CCD1A201916E1186714D5B6BEC51C9F04F90FCAF4</t>
   </si>
 </sst>
 </file>
@@ -729,54 +742,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +816,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,8 +873,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -841,10 +892,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,15 +911,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +930,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,15 +949,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +968,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,16 +979,40 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -958,55 +1033,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,55 +1095,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,55 +1157,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,55 +1219,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,55 +1281,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,92 +1380,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,133 +1458,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1524,12 +1537,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1557,43 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1573,14 +1622,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1594,46 +1645,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBC4DEA-E87B-417A-ADC1-9CE0700FE570}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1663,32 +1710,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1719,27 +1766,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1770,27 +1817,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1821,27 +1868,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1873,27 +1920,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1920,10 +1967,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,42 +2022,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>